--- a/data/trans_bre/P38B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>4.511289493568082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.575356140695539</v>
+        <v>1.575356140695527</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.06777381557577887</v>
@@ -627,7 +627,7 @@
         <v>0.06393766367991768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01623233126682241</v>
+        <v>0.01623233126682229</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2231547648653834</v>
+        <v>-0.2073543815511165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.401425967810889</v>
+        <v>-3.105770217609124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2837710173367149</v>
+        <v>-0.2368780738752613</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.002853967426738585</v>
+        <v>-0.002089303278045422</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04489239906198366</v>
+        <v>-0.04160421674332723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.002821273652248445</v>
+        <v>-0.0021841237093389</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.52896971218976</v>
+        <v>11.50011439653562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.70632055173603</v>
+        <v>12.29719363048793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.479350379369251</v>
+        <v>4.3626974572576</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1445159020312168</v>
+        <v>0.1446109657919239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.176241638616763</v>
+        <v>0.1864463517363642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04736628239212781</v>
+        <v>0.04626732749174958</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>6.589018353290088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.826548837195935</v>
+        <v>7.826548837195945</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07506186696719169</v>
@@ -709,7 +709,7 @@
         <v>0.07459000138196983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1027693450384852</v>
+        <v>0.1027693450384854</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.559287853531916</v>
+        <v>3.057599095497435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.182918241571727</v>
+        <v>3.045187404012962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.663718907033684</v>
+        <v>1.2350231549175</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02858889204605918</v>
+        <v>0.03483729124409838</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03496958761145235</v>
+        <v>0.03346342049020099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02301890950116186</v>
+        <v>0.01736385049757959</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.37779486830235</v>
+        <v>10.00185701044032</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.1625986986625</v>
+        <v>10.19528415283711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.86746025109399</v>
+        <v>13.94487368401739</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1226388245177262</v>
+        <v>0.1195394089852133</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1191903837653394</v>
+        <v>0.1194283673226512</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1943724760130923</v>
+        <v>0.1952274523560777</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>2.788742897006291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.528206057850292</v>
+        <v>3.528206057850258</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.04852217936555956</v>
@@ -791,7 +791,7 @@
         <v>0.03116192818495434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03776247811685914</v>
+        <v>0.03776247811685877</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.645241591637547</v>
+        <v>-1.235008253177709</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.374851155484741</v>
+        <v>-1.135370625773472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.01891580308189472</v>
+        <v>0.1421969866921595</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.007576067843379069</v>
+        <v>-0.01408695130817384</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01424530313613823</v>
+        <v>-0.01242891903597747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0001957662128685254</v>
+        <v>0.002015103189706938</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.547179251362941</v>
+        <v>9.298628960533978</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.398836168655766</v>
+        <v>7.679004683228547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.743350822962871</v>
+        <v>7.370570543049891</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1185146578045888</v>
+        <v>0.1151777653345663</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08562722132109513</v>
+        <v>0.08814393917426877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08618362587635738</v>
+        <v>0.08208502644313936</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.134433447858473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.499534062220325</v>
+        <v>6.499534062220357</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.104024988771541</v>
@@ -873,7 +873,7 @@
         <v>0.001471494054818232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07536850529246654</v>
+        <v>0.07536850529246694</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.997305507920358</v>
+        <v>2.763830688167376</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.235358538015883</v>
+        <v>-4.163981967191804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8049818957146123</v>
+        <v>0.4496138950490846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02469158622726789</v>
+        <v>0.03553181761884603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.045340705671023</v>
+        <v>-0.04466369103238992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00841910396526117</v>
+        <v>0.004963111927062081</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.40442223691011</v>
+        <v>14.04275409626451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.052352615359006</v>
+        <v>4.453676876578181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.21952272603059</v>
+        <v>13.74645713250766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1846718973055331</v>
+        <v>0.1935765267720901</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04544378685085742</v>
+        <v>0.04979446318951571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1766197142045476</v>
+        <v>0.1714618706852452</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>10.94138410868458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.195061452613849</v>
+        <v>8.195061452613828</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.09862950733316189</v>
@@ -955,7 +955,7 @@
         <v>0.141013691972917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1045947872529441</v>
+        <v>0.1045947872529438</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.112556786442763</v>
+        <v>2.250875409064526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.903442073337597</v>
+        <v>3.108452316920243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.267641241235624</v>
+        <v>1.440592460149747</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.02395163161700237</v>
+        <v>0.02568561782130423</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04840419871101825</v>
+        <v>0.03852854718944417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01526620345385258</v>
+        <v>0.01790732389307323</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.62229438274777</v>
+        <v>15.32650561039482</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.53674889686113</v>
+        <v>17.83954901870894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.41249932430829</v>
+        <v>15.20378494548393</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1868979279323173</v>
+        <v>0.1958678188451231</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2405396731590221</v>
+        <v>0.2450025042205007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2105474743367897</v>
+        <v>0.2099299540493979</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>6.179257426231155</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3.232056341447298</v>
+        <v>3.232056341447276</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.007044980308387222</v>
@@ -1037,7 +1037,7 @@
         <v>0.07667468331403464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03441397004088653</v>
+        <v>0.03441397004088629</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.162903222403712</v>
+        <v>-4.98131360816681</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.3837917345177758</v>
+        <v>0.4190545106622517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4401261959466132</v>
+        <v>-0.1909937719752133</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05684288568750832</v>
+        <v>-0.05504414312413891</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.005220186112613289</v>
+        <v>0.004662269190203298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.004608278695283292</v>
+        <v>-0.001640493436931816</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.049192494943588</v>
+        <v>5.906798349051684</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.44878619211544</v>
+        <v>13.02320559348856</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.010062804838728</v>
+        <v>6.909511424518469</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07230457834578767</v>
+        <v>0.06943660010687511</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.161101884382424</v>
+        <v>0.1697595558456438</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07677642548137406</v>
+        <v>0.07598642663336204</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>7.555000047985794</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.652537375502744</v>
+        <v>7.652537375502733</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.07620843193494817</v>
@@ -1119,7 +1119,7 @@
         <v>0.1143945031947929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09163988546565117</v>
+        <v>0.09163988546565105</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.173977235613155</v>
+        <v>3.339839453497808</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.721557081233107</v>
+        <v>2.732814415467059</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.300239971444123</v>
+        <v>3.793814328253212</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.03600325842355406</v>
+        <v>0.03720184753650991</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02717453287214202</v>
+        <v>0.03861201625073599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03906506169984215</v>
+        <v>0.04460883085195651</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.838826012033778</v>
+        <v>10.2408927492155</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.4604466247733</v>
+        <v>13.02492474337453</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.60745187583587</v>
+        <v>11.98432354080791</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1172131152933549</v>
+        <v>0.1224125583455151</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1986911660336331</v>
+        <v>0.206680563244712</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1449329177333544</v>
+        <v>0.1510518129797012</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>5.252749851462301</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9.258457183365509</v>
+        <v>9.25845718336552</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06807425086204616</v>
@@ -1201,7 +1201,7 @@
         <v>0.05885809091053777</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.154765988598513</v>
+        <v>0.1547659885985132</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5838375112876562</v>
+        <v>0.6860742952061966</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.631367710082176</v>
+        <v>2.462259087288996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.478149266840384</v>
+        <v>4.052581919930328</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.007608408452708069</v>
+        <v>0.008249769249165007</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02924992868372197</v>
+        <v>0.02693915421797616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07152894544486303</v>
+        <v>0.06522790588290993</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.122375303365432</v>
+        <v>9.169123978559449</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.92941721186977</v>
+        <v>7.977024666191773</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.93295084548724</v>
+        <v>14.23794410256986</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1274664566827287</v>
+        <v>0.1262594351948702</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09122647865508773</v>
+        <v>0.09087058966741812</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2446125622755634</v>
+        <v>0.2481622546733174</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>5.528879244371332</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.74969857906329</v>
+        <v>6.749698579063268</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.06880489795594479</v>
@@ -1283,7 +1283,7 @@
         <v>0.06752553712363897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08442583959439919</v>
+        <v>0.08442583959439891</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.822235163658252</v>
+        <v>3.958319423139148</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.682490563491718</v>
+        <v>3.813436025778911</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.707858724778492</v>
+        <v>4.663410294850764</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.04593505209612632</v>
+        <v>0.04793818287260231</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04448436487536517</v>
+        <v>0.04576039963489213</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05794402862994943</v>
+        <v>0.05682959931742888</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.248481695829005</v>
+        <v>7.350157703737533</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.333518766950855</v>
+        <v>7.164668384737667</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.942575318884739</v>
+        <v>9.066295070450204</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.09022404484884089</v>
+        <v>0.09103301008648959</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09072346460237621</v>
+        <v>0.08890000477091599</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1133569629689775</v>
+        <v>0.1147898699180058</v>
       </c>
     </row>
     <row r="31">
